--- a/Docs/Orderlist_FRDM-MCXx_Shield_V2.0.xlsx
+++ b/Docs/Orderlist_FRDM-MCXx_Shield_V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github-repositories\FRDM_MCXx_SensHat\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D101DE57-C651-47FD-8DF5-E17A5990AA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F8E995-F930-423D-8A2C-74FE20D9A94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{73606AE1-FCDB-4463-857B-E397C2A1DD7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t xml:space="preserve">Type: </t>
   </si>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Oled</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/en/displays/oled/0.96-inch-oled-display-128*64-pixels-white-i2c</t>
+  </si>
+  <si>
+    <t>Let op!: SK6182 worden per 10 verpakt. Het gaat hier om 9 leds, niet 9 verpakkingen!</t>
   </si>
 </sst>
 </file>
@@ -270,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +309,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -322,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,7 +354,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -346,14 +365,14 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -389,8 +408,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A44F3A0-B729-406C-9EC4-0378BD73E1FB}" name="Table2" displayName="Table2" ref="A1:G19" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:G19" xr:uid="{1A44F3A0-B729-406C-9EC4-0378BD73E1FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A44F3A0-B729-406C-9EC4-0378BD73E1FB}" name="Table2" displayName="Table2" ref="A1:G20" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:G20" xr:uid="{1A44F3A0-B729-406C-9EC4-0378BD73E1FB}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{40FDC98D-4597-4516-8075-7DB8B5B16B60}" name="Type: "/>
     <tableColumn id="2" xr3:uid="{E364DB80-3F9E-426A-8D8A-9511B38F8C26}" name="Reference:"/>
@@ -398,21 +417,21 @@
     <tableColumn id="4" xr3:uid="{B9FE586B-2FA3-4BDB-AE86-26E63E6C3EC1}" name="Package:" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{E8588274-7FCF-4ED5-A4DB-8582E2A0278C}" name="Price pp:" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{F98FB604-9045-4F81-AD23-E46FEA608BD7}" name="Quantity:" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{2334DE23-38A7-44B1-B1A7-203A7C8DF981}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{2334DE23-38A7-44B1-B1A7-203A7C8DF981}" name="Column1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{373B21FC-0EEB-4F8D-B354-9E1C7EEDA521}" name="Table3" displayName="Table3" ref="H1:K19" totalsRowShown="0">
-  <autoFilter ref="H1:K19" xr:uid="{373B21FC-0EEB-4F8D-B354-9E1C7EEDA521}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{373B21FC-0EEB-4F8D-B354-9E1C7EEDA521}" name="Table3" displayName="Table3" ref="H1:K20" totalsRowShown="0">
+  <autoFilter ref="H1:K20" xr:uid="{373B21FC-0EEB-4F8D-B354-9E1C7EEDA521}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E190DF5B-A60F-4828-9B71-0B0658849624}" name="PCBs:" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8EFE6822-B461-468C-8842-1CD78C2B43E5}" name="Total amount:" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{E190DF5B-A60F-4828-9B71-0B0658849624}" name="PCBs:" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8EFE6822-B461-468C-8842-1CD78C2B43E5}" name="Total amount:" dataDxfId="1">
       <calculatedColumnFormula>Table3[[#This Row],[PCBs:]]*Table2[[#This Row],[Quantity:]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{632C5118-5BCF-4708-A654-5E36D2D9F8CD}" name="Price total:" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{632C5118-5BCF-4708-A654-5E36D2D9F8CD}" name="Price total:" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{F3D23841-B4C1-478A-946B-890E8577F60B}" name="Link:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -736,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA668D65-472B-48FC-8FA8-2A29925B1765}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -794,7 +813,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -828,7 +847,7 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -862,7 +881,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -896,7 +915,7 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -930,7 +949,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -964,7 +983,7 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -998,7 +1017,7 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1032,7 +1051,7 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1066,7 +1085,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1100,7 +1119,7 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1134,7 +1153,7 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1168,7 +1187,7 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1202,7 +1221,7 @@
       <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="1">
@@ -1236,7 +1255,7 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1270,7 +1289,7 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
@@ -1302,7 +1321,7 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1336,7 +1355,7 @@
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="1"/>
@@ -1365,39 +1384,61 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <f>Table3[[#This Row],[PCBs:]]*Table2[[#This Row],[Quantity:]]</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <f>Table2[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
+        <v>21</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4">
-        <f>SUM(E2:E18)</f>
-        <v>7.5929999999999991</v>
-      </c>
-      <c r="F19" s="1">
-        <f>SUM(F2:F18)</f>
-        <v>52</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="1">
-        <v>3</v>
-      </c>
-      <c r="I19" s="1">
-        <f>Table3[[#This Row],[PCBs:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>156</v>
-      </c>
-      <c r="J19" s="4">
-        <f>SUM(J2:J18)</f>
-        <v>51.762999999999991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="4">
+        <f>SUM(E2:E19)</f>
+        <v>14.593</v>
+      </c>
+      <c r="F20" s="1">
+        <f>SUM(F2:F19)</f>
+        <v>53</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <f>Table3[[#This Row],[PCBs:]]*Table2[[#This Row],[Quantity:]]</f>
+        <v>159</v>
+      </c>
+      <c r="J20" s="4">
+        <f>SUM(J2:J19)</f>
+        <v>72.762999999999991</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C21" s="1"/>
@@ -1406,9 +1447,12 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1446,6 +1490,12 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1465,11 +1515,12 @@
     <hyperlink ref="K15" r:id="rId13" xr:uid="{DD4FD881-306A-4DB7-A96D-91BD8CC55BA9}"/>
     <hyperlink ref="K17" r:id="rId14" xr:uid="{DA512710-75F3-47D8-B368-1A3BA7E7D871}"/>
     <hyperlink ref="K12" r:id="rId15" xr:uid="{9988F5CC-0B24-4686-B1BD-0FE5E32F3BB5}"/>
+    <hyperlink ref="K19" r:id="rId16" xr:uid="{9534E341-9BF7-4E15-82BF-0604C5ECEC51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>